--- a/biology/Zoologie/Insecte_social/Insecte_social.xlsx
+++ b/biology/Zoologie/Insecte_social/Insecte_social.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les insectes sociaux sont des insectes qui vivent et s'organisent en colonies et démontrent une intelligence collective leur permettant de retirer un bénéfice de leur instinct grégaire.
 On connaît des insectes sociaux parmi trois ordres différents : les hyménoptères (Hymenoptera), les blattoptères (Blattodea) et les coléoptères (Coleoptera).
@@ -512,7 +524,9 @@
           <t>Inventaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hyménoptères (Hymenoptera) :
 toutes les espèces de fourmis (Formicidae),
@@ -552,12 +566,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eusocialité
-Les insectes sociaux présentent en général une structure sociale d'un type particulier baptisée eusocialité qui se manifeste par une division du travail, la présence d'une caste stérile (ouvrières) et une absence de séparation franche entre les différentes générations.
+          <t>Eusocialité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les insectes sociaux présentent en général une structure sociale d'un type particulier baptisée eusocialité qui se manifeste par une division du travail, la présence d'une caste stérile (ouvrières) et une absence de séparation franche entre les différentes générations.
 Le fait que certains individus (« ouvrier » ou « ouvrière ») de la colonie ne se reproduisent pas s'explique par le fait que le bénéfice n'est pas donné à leur progéniture mais à celle d'individus qui leur sont étroitement apparentés.
-Ils ne représentent que 2 % des espèces d'insectes mais à eux seuls la moitié de la biomasse des insectes[1].
-Subsocialité
-Quand la socialité se limite à des soins coordonnés aux jeunes, on parle de subsocialité. Exemple : les passalidés (Passalidae), une famille de coléoptères (Coleoptera).
+Ils ne représentent que 2 % des espèces d'insectes mais à eux seuls la moitié de la biomasse des insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Insecte_social</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insecte_social</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Différents niveaux de socialité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Subsocialité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand la socialité se limite à des soins coordonnés aux jeunes, on parle de subsocialité. Exemple : les passalidés (Passalidae), une famille de coléoptères (Coleoptera).
 </t>
         </is>
       </c>
